--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD30573-B20F-4DEA-99C8-15982CDF5042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914781E9-B07E-4E83-B751-85EA0B9B4D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Czech_MXPanel" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +102,15 @@
   </si>
   <si>
     <t>NGC-3478/T2265/T2264/T2268</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734/T1737/T1735</t>
+  </si>
+  <si>
+    <t>MZX Communicator</t>
   </si>
 </sst>
 </file>
@@ -655,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0AFF44-8AD7-492C-B27F-C4CAE9E4FBB0}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,4 +787,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4876EAC9-B20F-4107-98FE-E23643A7E1E2}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D0628-DFEE-4EF0-8487-7FA6909C513B}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914781E9-B07E-4E83-B751-85EA0B9B4D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB132D2-E319-4B7F-936E-0BD025ED2526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Czech_MXPanel" sheetId="16" r:id="rId4"/>
+    <sheet name="Swiss" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>MZX Communicator</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344</t>
   </si>
 </sst>
 </file>
@@ -794,7 +801,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D0628-DFEE-4EF0-8487-7FA6909C513B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,4 +1056,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B980F7-A0C4-4381-BD5C-6E0C06E30FD0}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB132D2-E319-4B7F-936E-0BD025ED2526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABD594-F15D-48AF-B8AD-FFC86402B662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Czech_MXPanel" sheetId="16" r:id="rId4"/>
     <sheet name="Swiss" sheetId="17" r:id="rId5"/>
+    <sheet name="Portugal" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -118,13 +119,19 @@
   </si>
   <si>
     <t>NGC-3476/T2344</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +150,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,11 +217,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -219,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -542,7 +570,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,12 +582,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -568,10 +596,10 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -686,12 +714,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -700,10 +728,10 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -812,12 +840,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -826,10 +854,10 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -943,12 +971,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -957,10 +985,10 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1062,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B980F7-A0C4-4381-BD5C-6E0C06E30FD0}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1074,12 +1102,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1088,10 +1116,10 @@
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1162,6 +1190,138 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3962D22D-6068-480B-8B5C-6E5E70A80957}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABD594-F15D-48AF-B8AD-FFC86402B662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0688E6F0-C584-472C-87EA-4F87CC7800BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Zettler Printer</t>
   </si>
   <si>
-    <t>NGC-3475/T1730</t>
-  </si>
-  <si>
     <t>Germany Market</t>
   </si>
   <si>
@@ -124,7 +121,10 @@
     <t>Portugal Market</t>
   </si>
   <si>
-    <t>NGC-3479/T2404</t>
+    <t>NGC-3479/T2404/T2512/T2506/T2509</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1730/T1743/T1745</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -702,7 +702,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -1005,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1221,14 +1221,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3962D22D-6068-480B-8B5C-6E5E70A80957}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0688E6F0-C584-472C-87EA-4F87CC7800BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083BC09-AB2D-43A0-8E72-6B18E50E76C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Czech_MXPanel" sheetId="16" r:id="rId4"/>
     <sheet name="Swiss" sheetId="17" r:id="rId5"/>
     <sheet name="Portugal" sheetId="18" r:id="rId6"/>
+    <sheet name="Slovakia" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>NGC-3475/T1730/T1743/T1745</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222/T3221/T3225</t>
   </si>
 </sst>
 </file>
@@ -569,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1222,7 +1229,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,4 +1354,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175039F8-C33D-48AC-BE5E-D1EC381A7D66}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C98EA-8254-4337-A531-EFC965D04123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB9F67-AC23-4068-8C6B-F9D5E33BCA2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Portugal" sheetId="18" r:id="rId6"/>
     <sheet name="Slovakia" sheetId="19" r:id="rId7"/>
     <sheet name="Italy" sheetId="20" r:id="rId8"/>
+    <sheet name="Spain" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>NGC-3145/T2155/T2156/T2158 </t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034/T2035/T2036</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E100BE-00B1-4BAF-B656-04E82ED01DEC}">
   <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18011,4 +18018,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315FAB4D-4CF3-4212-B5BD-EE6A174076DA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB9F67-AC23-4068-8C6B-F9D5E33BCA2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE815DE5-F42B-4BB4-8158-C90179A18656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Slovakia" sheetId="19" r:id="rId7"/>
     <sheet name="Italy" sheetId="20" r:id="rId8"/>
     <sheet name="Spain" sheetId="21" r:id="rId9"/>
+    <sheet name="Turkey" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>NGC-3103/T2034/T2035/T2036</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3310/T3325/T3291</t>
   </si>
 </sst>
 </file>
@@ -712,6 +719,137 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB115FC-764F-4E0D-BA5E-5EBB769D8CCD}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -18024,8 +18162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315FAB4D-4CF3-4212-B5BD-EE6A174076DA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE815DE5-F42B-4BB4-8158-C90179A18656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5B5654-E6FA-492F-BF4C-023DD73548DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Italy" sheetId="20" r:id="rId8"/>
     <sheet name="Spain" sheetId="21" r:id="rId9"/>
     <sheet name="Turkey" sheetId="22" r:id="rId10"/>
+    <sheet name="Croatia" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -153,6 +154,12 @@
   </si>
   <si>
     <t>NGC-3191/T3310/T3325/T3291</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2415/T2416/T2417</t>
   </si>
 </sst>
 </file>
@@ -737,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB115FC-764F-4E0D-BA5E-5EBB769D8CCD}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,6 +791,137 @@
       </c>
       <c r="B4" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E726789-C2D9-41CD-A815-A098BF9B3222}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5B5654-E6FA-492F-BF4C-023DD73548DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9C42C-36FA-4910-867D-FBFF1C3C9089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Spain" sheetId="21" r:id="rId9"/>
     <sheet name="Turkey" sheetId="22" r:id="rId10"/>
     <sheet name="Croatia" sheetId="23" r:id="rId11"/>
+    <sheet name="Greece" sheetId="24" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -160,6 +161,12 @@
   </si>
   <si>
     <t>NGC-3139/T2415/T2416/T2417</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167/T3166</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -875,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E726789-C2D9-41CD-A815-A098BF9B3222}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,6 +929,137 @@
       </c>
       <c r="B4" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F54C8-1DC8-4175-AD51-95F5530CBBAC}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9C42C-36FA-4910-867D-FBFF1C3C9089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69214419-435B-4578-ADD4-66968335D0BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Turkey" sheetId="22" r:id="rId10"/>
     <sheet name="Croatia" sheetId="23" r:id="rId11"/>
     <sheet name="Greece" sheetId="24" r:id="rId12"/>
+    <sheet name="Netherlands" sheetId="25" r:id="rId13"/>
+    <sheet name="Austria" sheetId="26" r:id="rId14"/>
+    <sheet name="Denmark" sheetId="27" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -168,6 +171,24 @@
   <si>
     <t>Greece Market</t>
   </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2749</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,11 +300,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,6 +350,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F54C8-1DC8-4175-AD51-95F5530CBBAC}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1122,6 +1171,402 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B209F246-4F69-443C-A128-802C62BE610B}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116C84D9-E0AA-4490-BA9F-F36EB7D868BE}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C64A8FF-7A51-4E4F-ADF1-CD7D5C060F39}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69214419-435B-4578-ADD4-66968335D0BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6BF86-F1DD-44BD-8310-2E567F299EFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="Netherlands" sheetId="25" r:id="rId13"/>
     <sheet name="Austria" sheetId="26" r:id="rId14"/>
     <sheet name="Denmark" sheetId="27" r:id="rId15"/>
+    <sheet name="Russia" sheetId="29" r:id="rId16"/>
+    <sheet name="Finland" sheetId="30" r:id="rId17"/>
+    <sheet name="Hungary" sheetId="31" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -188,6 +191,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2910</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2946</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2995</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -344,14 +365,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,12 +702,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -695,10 +716,10 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -812,12 +833,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -826,10 +847,10 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -943,12 +964,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -957,10 +978,10 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1074,12 +1095,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1088,10 +1109,10 @@
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1206,12 +1227,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1220,10 +1241,10 @@
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1292,7 +1313,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1302,7 +1323,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1338,12 +1359,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1352,10 +1373,10 @@
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1434,7 +1455,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1457,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C64A8FF-7A51-4E4F-ADF1-CD7D5C060F39}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1470,12 +1491,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1484,10 +1505,10 @@
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1566,7 +1587,398 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EFF525-F32E-452D-88D6-8F2CA7634230}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE371F8-0FEB-4FE1-849F-EF98C9BBC224}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A66771-5CD8-4F0A-A39D-65B33C1104DB}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1602,12 +2014,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1616,10 +2028,10 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1728,12 +2140,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1742,10 +2154,10 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1859,12 +2271,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1873,10 +2285,10 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1990,12 +2402,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2004,10 +2416,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2122,12 +2534,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2136,10 +2548,10 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2254,12 +2666,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2268,10 +2680,10 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2381,12 +2793,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2395,10 +2807,10 @@
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -18895,12 +19307,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -18909,10 +19321,10 @@
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6BF86-F1DD-44BD-8310-2E567F299EFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17BC995-DA42-44C6-ADC3-AB703BD5D132}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="Russia" sheetId="29" r:id="rId16"/>
     <sheet name="Finland" sheetId="30" r:id="rId17"/>
     <sheet name="Hungary" sheetId="31" r:id="rId18"/>
+    <sheet name="Norway" sheetId="32" r:id="rId19"/>
+    <sheet name="Poland" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="57">
   <si>
     <t>Wg</t>
   </si>
@@ -209,6 +211,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3107/T3104</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A66771-5CD8-4F0A-A39D-65B33C1104DB}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1976,6 +1990,137 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574FF4FF-6AC7-4F42-8F55-2DF5EAAFCF31}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2111,6 +2256,137 @@
     </row>
     <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202D3CB-ED21-490C-AD96-91E418CA2BAF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17BC995-DA42-44C6-ADC3-AB703BD5D132}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963223EC-A447-45ED-B9CF-741858FBB817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="20" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Hungary" sheetId="31" r:id="rId18"/>
     <sheet name="Norway" sheetId="32" r:id="rId19"/>
     <sheet name="Poland" sheetId="33" r:id="rId20"/>
+    <sheet name="UK" sheetId="34" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="59">
   <si>
     <t>Wg</t>
   </si>
@@ -223,6 +224,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343/T3342</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574FF4FF-6AC7-4F42-8F55-2DF5EAAFCF31}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2320,6 +2327,137 @@
       </c>
       <c r="B4" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA6AE4B-C9A7-4314-AFBB-11096412A33C}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
